--- a/proj3/output/output.xlsx
+++ b/proj3/output/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\rhel9\home\vlee\repos\cs475\proj3\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3118300D-4929-42F3-855E-1F68276BC8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{40B50180-8AFA-40E6-A4EE-73DB095D4CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="23232" windowHeight="25296" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -595,6 +595,3632 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Performance vs. Number of Capital Cities</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.63800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.17400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157.679</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140.001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153.99299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162.99799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>177.821</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>194.482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61CC-47AC-B621-400389DD0DD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>23.504000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.118000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.082999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.822000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129.102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>174.91900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>229.45699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>277.04500000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>313.714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-61CC-47AC-B621-400389DD0DD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13.635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.327999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.614000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.882000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>233.642</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>328.21800000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>315.77300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-61CC-47AC-B621-400389DD0DD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.917999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.670999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107.756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170.34100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>213.83500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>288.53399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-61CC-47AC-B621-400389DD0DD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.5719999999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.875999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.938999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.971000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154.27600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206.096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>237.51400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-61CC-47AC-B621-400389DD0DD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="526694719"/>
+        <c:axId val="526695199"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="526694719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Number of Capital Cities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526695199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="526695199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>megaCityCapitals per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1723592245813003E-2"/>
+              <c:y val="0.28491676245572961"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526694719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Performance vs. Number of Threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>75.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.504000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5719999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99FE-4F4A-8E61-70D6D85E8AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>97.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.118000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.327999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-99FE-4F4A-8E61-70D6D85E8AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$14:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>120.63800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.614000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.917999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-99FE-4F4A-8E61-70D6D85E8AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$14:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>137.17400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.082999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-99FE-4F4A-8E61-70D6D85E8AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$14:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>157.679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.822000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.882000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.670999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.875999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-99FE-4F4A-8E61-70D6D85E8AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$14:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>140.001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129.102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.938999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-99FE-4F4A-8E61-70D6D85E8AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$14:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>153.99299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174.91900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.971000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-99FE-4F4A-8E61-70D6D85E8AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$14:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>162.99799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229.45699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233.642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.34100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154.27600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-99FE-4F4A-8E61-70D6D85E8AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$14:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>177.821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>277.04500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>328.21800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.83500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>206.096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-99FE-4F4A-8E61-70D6D85E8AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$14:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$14:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>194.482</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>313.714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>315.77300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>288.53399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>237.51400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-99FE-4F4A-8E61-70D6D85E8AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="526694719"/>
+        <c:axId val="526695199"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="526694719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526695199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="526695199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>megaCityCapitals per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1723592245813003E-2"/>
+              <c:y val="0.28491676245572961"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526694719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1784838</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651B3E40-A11D-5F74-33E9-D619D94662B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1760220</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>318282</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4C8817-3F1D-4538-A9CA-429892CECE76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90856</cdr:x>
+      <cdr:y>0.65026</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.70555</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3964E3D-A5B1-E397-39FE-D34881A7DDF5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6889580" y="2957513"/>
+          <a:ext cx="693420" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Threads</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90756</cdr:x>
+      <cdr:y>0.77089</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.999</cdr:x>
+      <cdr:y>0.82618</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3964E3D-A5B1-E397-39FE-D34881A7DDF5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6881990" y="3506144"/>
+          <a:ext cx="693389" cy="251469"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Capitals</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1353,7 +4979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -2086,10 +5712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L10"/>
+  <dimension ref="A3:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2375,8 +6001,216 @@
         <v>5857.2749999999996</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>40</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>75.510000000000005</v>
+      </c>
+      <c r="C14">
+        <v>97.9</v>
+      </c>
+      <c r="D14">
+        <v>120.63800000000001</v>
+      </c>
+      <c r="E14">
+        <v>137.17400000000001</v>
+      </c>
+      <c r="F14">
+        <v>157.679</v>
+      </c>
+      <c r="G14">
+        <v>140.001</v>
+      </c>
+      <c r="H14">
+        <v>153.99299999999999</v>
+      </c>
+      <c r="I14">
+        <v>162.99799999999999</v>
+      </c>
+      <c r="J14">
+        <v>177.821</v>
+      </c>
+      <c r="K14">
+        <v>194.482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>23.504000000000001</v>
+      </c>
+      <c r="C15">
+        <v>33.118000000000002</v>
+      </c>
+      <c r="D15">
+        <v>36.789000000000001</v>
+      </c>
+      <c r="E15">
+        <v>54.082999999999998</v>
+      </c>
+      <c r="F15">
+        <v>82.822000000000003</v>
+      </c>
+      <c r="G15">
+        <v>129.102</v>
+      </c>
+      <c r="H15">
+        <v>174.91900000000001</v>
+      </c>
+      <c r="I15">
+        <v>229.45699999999999</v>
+      </c>
+      <c r="J15">
+        <v>277.04500000000002</v>
+      </c>
+      <c r="K15">
+        <v>313.714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>13.635</v>
+      </c>
+      <c r="C16">
+        <v>17.327999999999999</v>
+      </c>
+      <c r="D16">
+        <v>24.614000000000001</v>
+      </c>
+      <c r="E16">
+        <v>33.646000000000001</v>
+      </c>
+      <c r="F16">
+        <v>67.882000000000005</v>
+      </c>
+      <c r="G16">
+        <v>103.496</v>
+      </c>
+      <c r="H16">
+        <v>142.03</v>
+      </c>
+      <c r="I16">
+        <v>233.642</v>
+      </c>
+      <c r="J16">
+        <v>328.21800000000002</v>
+      </c>
+      <c r="K16">
+        <v>315.77300000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>10.259</v>
+      </c>
+      <c r="C17">
+        <v>14.071</v>
+      </c>
+      <c r="D17">
+        <v>18.917999999999999</v>
+      </c>
+      <c r="E17">
+        <v>27.038</v>
+      </c>
+      <c r="F17">
+        <v>48.670999999999999</v>
+      </c>
+      <c r="G17">
+        <v>61.305</v>
+      </c>
+      <c r="H17">
+        <v>107.756</v>
+      </c>
+      <c r="I17">
+        <v>170.34100000000001</v>
+      </c>
+      <c r="J17">
+        <v>213.83500000000001</v>
+      </c>
+      <c r="K17">
+        <v>288.53399999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>8.5719999999999992</v>
+      </c>
+      <c r="C18">
+        <v>13.238</v>
+      </c>
+      <c r="D18">
+        <v>17.055</v>
+      </c>
+      <c r="E18">
+        <v>21.997</v>
+      </c>
+      <c r="F18">
+        <v>42.875999999999998</v>
+      </c>
+      <c r="G18">
+        <v>70.938999999999993</v>
+      </c>
+      <c r="H18">
+        <v>70.971000000000004</v>
+      </c>
+      <c r="I18">
+        <v>154.27600000000001</v>
+      </c>
+      <c r="J18">
+        <v>206.096</v>
+      </c>
+      <c r="K18">
+        <v>237.51400000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
